--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_30_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_30_7.xlsx
@@ -518,551 +518,551 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_24</t>
+          <t>model_30_7_7</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9936832219639742</v>
+        <v>0.9674272308754858</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8132324623844824</v>
+        <v>0.7759373667074283</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9616430826556277</v>
+        <v>0.8827222256091009</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9530770951585661</v>
+        <v>0.6561571678170852</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9658012217863335</v>
+        <v>0.8912855015420561</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04224032381299284</v>
+        <v>0.2178142571194371</v>
       </c>
       <c r="H2" t="n">
-        <v>1.248915384020401</v>
+        <v>1.498307860540987</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03974251049800387</v>
+        <v>0.7241889749060061</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2173856988825034</v>
+        <v>0.587991271714408</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1285641636402632</v>
+        <v>0.656090027782157</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5158029988700151</v>
+        <v>0.7920008255546829</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2055245090323605</v>
+        <v>0.4667057500389696</v>
       </c>
       <c r="N2" t="n">
-        <v>1.002332348813302</v>
+        <v>1.012026868599821</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2142741128762531</v>
+        <v>0.4865743800322167</v>
       </c>
       <c r="P2" t="n">
-        <v>184.3287599471724</v>
+        <v>181.0482252218809</v>
       </c>
       <c r="Q2" t="n">
-        <v>292.8087083604423</v>
+        <v>289.5281736351508</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_23</t>
+          <t>model_30_7_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9937061357489646</v>
+        <v>0.9669815188846425</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8130135045323248</v>
+        <v>0.7759239862355704</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9624102748369981</v>
+        <v>0.8778420078064607</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9534601707898677</v>
+        <v>0.6574098447730166</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9661429911373097</v>
+        <v>0.8889662458543297</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0420870992272537</v>
+        <v>0.2207947352545215</v>
       </c>
       <c r="H3" t="n">
-        <v>1.250379556185987</v>
+        <v>1.498397335817913</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03894760450886089</v>
+        <v>0.7543242664918791</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2156109757677095</v>
+        <v>0.5858491211519279</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1272793431565722</v>
+        <v>0.6700866938219034</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5195466926949234</v>
+        <v>0.7796338035598487</v>
       </c>
       <c r="M3" t="n">
-        <v>0.205151405618518</v>
+        <v>0.4698880028842208</v>
       </c>
       <c r="N3" t="n">
-        <v>1.002323888338844</v>
+        <v>1.012191439181055</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2138851256776528</v>
+        <v>0.4898921079692619</v>
       </c>
       <c r="P3" t="n">
-        <v>184.3360280338205</v>
+        <v>181.0210436176389</v>
       </c>
       <c r="Q3" t="n">
-        <v>292.8159764470903</v>
+        <v>289.5009920309087</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_22</t>
+          <t>model_30_7_6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9937256363682635</v>
+        <v>0.9678683481966587</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8127662043346711</v>
+        <v>0.7758999751691635</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9632511118939394</v>
+        <v>0.8880400690606424</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9538778624032237</v>
+        <v>0.6545041892479784</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9665162514500268</v>
+        <v>0.8937719170979354</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04195669849621035</v>
+        <v>0.2148645035615959</v>
       </c>
       <c r="H4" t="n">
-        <v>1.25203325374641</v>
+        <v>1.498557897929536</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03807639331994864</v>
+        <v>0.6913513497218322</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2136758827977925</v>
+        <v>0.5908179613527971</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1258761380588705</v>
+        <v>0.6410845549678218</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5237143068253362</v>
+        <v>0.8055627457389172</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2048333432237299</v>
+        <v>0.463534792180259</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00231668811018</v>
+        <v>1.011863994512003</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2135535227082387</v>
+        <v>0.4832684279326732</v>
       </c>
       <c r="P4" t="n">
-        <v>184.3422343614363</v>
+        <v>181.0754953310332</v>
       </c>
       <c r="Q4" t="n">
-        <v>292.8221827747061</v>
+        <v>289.5554437443031</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_21</t>
+          <t>model_30_7_9</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9937399713288387</v>
+        <v>0.9665409537449176</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8124863970022481</v>
+        <v>0.7758741188460171</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9641704130675338</v>
+        <v>0.8733742733236012</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9543320090969155</v>
+        <v>0.6583435866041507</v>
       </c>
       <c r="F5" t="n">
-        <v>0.966922800932016</v>
+        <v>0.8868128459592992</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04186084054883667</v>
+        <v>0.2237407963724782</v>
       </c>
       <c r="H5" t="n">
-        <v>1.253904326666717</v>
+        <v>1.498730799281474</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03712388360144379</v>
+        <v>0.7819124780869426</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2115718997486397</v>
+        <v>0.5842523682306704</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1243477883089538</v>
+        <v>0.6830824231588065</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5283428369049871</v>
+        <v>0.7683792896376622</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2045992193260685</v>
+        <v>0.473012469573983</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00231139520166</v>
+        <v>1.012354109386492</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2133094316715504</v>
+        <v>0.4931495896745449</v>
       </c>
       <c r="P5" t="n">
-        <v>184.34680896433</v>
+        <v>180.994534112408</v>
       </c>
       <c r="Q5" t="n">
-        <v>292.8267573775998</v>
+        <v>289.4744825256778</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_20</t>
+          <t>model_30_7_10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9937468667956331</v>
+        <v>0.9661124193045866</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8121693753428038</v>
+        <v>0.7757987572954037</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9651751440712238</v>
+        <v>0.8692914260913464</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9548244955321854</v>
+        <v>0.6590264129410435</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9673646924131261</v>
+        <v>0.8848208048300997</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04181473053063229</v>
+        <v>0.226606408148191</v>
       </c>
       <c r="H6" t="n">
-        <v>1.256024251963172</v>
+        <v>1.499234742317433</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03608285801267398</v>
+        <v>0.8071240151167066</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2092902953108265</v>
+        <v>0.5830846954202739</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1226865766617502</v>
+        <v>0.6951043552684902</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5334909836577352</v>
+        <v>0.7581459816411225</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2044865045195704</v>
+        <v>0.4760319402605155</v>
       </c>
       <c r="N6" t="n">
-        <v>1.002308849183151</v>
+        <v>1.012512337487537</v>
       </c>
       <c r="O6" t="n">
-        <v>0.213191918362388</v>
+        <v>0.496297605479369</v>
       </c>
       <c r="P6" t="n">
-        <v>184.3490131929849</v>
+        <v>180.9690813024571</v>
       </c>
       <c r="Q6" t="n">
-        <v>292.8289616062547</v>
+        <v>289.4490297157269</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_19</t>
+          <t>model_30_7_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9937433874370353</v>
+        <v>0.9682915551573774</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8118095765041536</v>
+        <v>0.7757934908153741</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9662694482134082</v>
+        <v>0.8938194697151697</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9553569432666654</v>
+        <v>0.6523449542844597</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9678435785288315</v>
+        <v>0.8964227218416073</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04183799701759715</v>
+        <v>0.2120345166665807</v>
       </c>
       <c r="H7" t="n">
-        <v>1.258430228453947</v>
+        <v>1.499269959293641</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03494902357367793</v>
+        <v>0.6556636138544807</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2068235570884281</v>
+        <v>0.5945103789148248</v>
       </c>
       <c r="K7" t="n">
-        <v>0.120886290331053</v>
+        <v>0.6250869963846527</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5392155154208076</v>
+        <v>0.8204096355670848</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2045433866386228</v>
+        <v>0.4604720585079845</v>
       </c>
       <c r="N7" t="n">
-        <v>1.002310133869402</v>
+        <v>1.011707733480353</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2132512220710107</v>
+        <v>0.4800753073472371</v>
       </c>
       <c r="P7" t="n">
-        <v>184.3479006655995</v>
+        <v>181.1020124061959</v>
       </c>
       <c r="Q7" t="n">
-        <v>292.8278490788693</v>
+        <v>289.5819608194657</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_18</t>
+          <t>model_30_7_11</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9937257738698875</v>
+        <v>0.965700920952778</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8114004558871656</v>
+        <v>0.7757062683180527</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9674590423554529</v>
+        <v>0.8655675075058904</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9559304109954418</v>
+        <v>0.6595134031798648</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9683608719539482</v>
+        <v>0.8829846456384394</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04195577902221764</v>
+        <v>0.2293580995215103</v>
       </c>
       <c r="H8" t="n">
-        <v>1.261166019903573</v>
+        <v>1.499853216534852</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03371645690899755</v>
+        <v>0.8301191716759201</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2041667803302986</v>
+        <v>0.5822519137449393</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1189416186196481</v>
+        <v>0.7061855427104298</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5455841639144685</v>
+        <v>0.7488520714707875</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2048310987672957</v>
+        <v>0.4789134572357623</v>
       </c>
       <c r="N8" t="n">
-        <v>1.002316637340349</v>
+        <v>1.012664275340513</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2135511827006474</v>
+        <v>0.4993017945978145</v>
       </c>
       <c r="P8" t="n">
-        <v>184.3422781915802</v>
+        <v>180.9449414868961</v>
       </c>
       <c r="Q8" t="n">
-        <v>292.8222266048501</v>
+        <v>289.4248899001659</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_17</t>
+          <t>model_30_7_12</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9936893475237574</v>
+        <v>0.9653094301497984</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8109343647144718</v>
+        <v>0.7756031761896365</v>
       </c>
       <c r="D9" t="n">
-        <v>0.968749685605679</v>
+        <v>0.8621754128386614</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9565457125740874</v>
+        <v>0.6598439594861683</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9689178678162661</v>
+        <v>0.881296084067442</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04219936216651723</v>
+        <v>0.2319760003236845</v>
       </c>
       <c r="H9" t="n">
-        <v>1.264282773721529</v>
+        <v>1.500542594072266</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03237919087010376</v>
+        <v>0.8510653191672328</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2013161945843954</v>
+        <v>0.5816866432064126</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1168476927272496</v>
+        <v>0.7163759811868227</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5526586162503659</v>
+        <v>0.7404202911722793</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2054248333734683</v>
+        <v>0.4816388691994081</v>
       </c>
       <c r="N9" t="n">
-        <v>1.002330087068151</v>
+        <v>1.012808825790844</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2141701938182048</v>
+        <v>0.5021432329911333</v>
       </c>
       <c r="P9" t="n">
-        <v>184.3307003451838</v>
+        <v>180.922242719095</v>
       </c>
       <c r="Q9" t="n">
-        <v>292.8106487584536</v>
+        <v>289.4021911323648</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_16</t>
+          <t>model_30_7_4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9936280913707921</v>
+        <v>0.9686790078261251</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8104022140082474</v>
+        <v>0.7755941950855415</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9701447054754068</v>
+        <v>0.900079093504588</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9572028292666874</v>
+        <v>0.6495554686967209</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9695149994022247</v>
+        <v>0.8992299320648163</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04260898234345472</v>
+        <v>0.2094436188866093</v>
       </c>
       <c r="H10" t="n">
-        <v>1.26784126794438</v>
+        <v>1.500602650756704</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03093377774370934</v>
+        <v>0.6170105053784736</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1982718866509683</v>
+        <v>0.5992805617560684</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1146028837913189</v>
+        <v>0.608145533567271</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5605280169405371</v>
+        <v>0.8366415843512965</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2064194330567128</v>
+        <v>0.4576501053060179</v>
       </c>
       <c r="N10" t="n">
-        <v>1.002352704724631</v>
+        <v>1.011564674033431</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2152071356690702</v>
+        <v>0.4771332177552144</v>
       </c>
       <c r="P10" t="n">
-        <v>184.3113803896009</v>
+        <v>181.1266013961989</v>
       </c>
       <c r="Q10" t="n">
-        <v>292.7913288028707</v>
+        <v>289.6065498094687</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_15</t>
+          <t>model_30_7_13</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9935344973536895</v>
+        <v>0.9649401405832642</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8097934519819617</v>
+        <v>0.7754943130522625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9716480614737483</v>
+        <v>0.8590902984662274</v>
       </c>
       <c r="E11" t="n">
-        <v>0.957901268241628</v>
+        <v>0.6600563535944931</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9701525255847788</v>
+        <v>0.8797478569577705</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04323484596678057</v>
+        <v>0.234445441355521</v>
       </c>
       <c r="H11" t="n">
-        <v>1.271912062417244</v>
+        <v>1.501270562373155</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02937611498864727</v>
+        <v>0.8701158666937734</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1950361397336084</v>
+        <v>0.5813234369093213</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1122062186254828</v>
+        <v>0.7257195037326255</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5692737250925651</v>
+        <v>0.7327741377443074</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2079299063790021</v>
+        <v>0.4841956643295363</v>
       </c>
       <c r="N11" t="n">
-        <v>1.002387262515561</v>
+        <v>1.012945178861564</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2167819129678002</v>
+        <v>0.5048088761832467</v>
       </c>
       <c r="P11" t="n">
-        <v>184.2822169785469</v>
+        <v>180.9010647552599</v>
       </c>
       <c r="Q11" t="n">
-        <v>292.7621653918167</v>
+        <v>289.3810131685297</v>
       </c>
     </row>
     <row r="12">
@@ -1072,712 +1072,712 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9933990713705521</v>
+        <v>0.9645939475695349</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8090954602761977</v>
+        <v>0.775383358438166</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9732620389298164</v>
+        <v>0.8562869732481366</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9586383773546007</v>
+        <v>0.6601779689505352</v>
       </c>
       <c r="F12" t="n">
-        <v>0.970829159548414</v>
+        <v>0.8783308825801415</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04414044013960023</v>
+        <v>0.2367604356324009</v>
       </c>
       <c r="H12" t="n">
-        <v>1.276579536167644</v>
+        <v>1.502012516388518</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02770383472129819</v>
+        <v>0.8874263692724693</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1916212407579866</v>
+        <v>0.5811154675664527</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1096625347815206</v>
+        <v>0.734270918419461</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5789990255706057</v>
+        <v>0.7258501074248656</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2100962639829662</v>
+        <v>0.4865803485883918</v>
       </c>
       <c r="N12" t="n">
-        <v>1.002437265955489</v>
+        <v>1.013073003974326</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2190404968999435</v>
+        <v>0.5072950813879785</v>
       </c>
       <c r="P12" t="n">
-        <v>184.2407578135157</v>
+        <v>180.8814129383733</v>
       </c>
       <c r="Q12" t="n">
-        <v>292.7207062267855</v>
+        <v>289.3613613516431</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_13</t>
+          <t>model_30_7_15</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9932099740300073</v>
+        <v>0.9642710760194981</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8082932135179968</v>
+        <v>0.775272983714116</v>
       </c>
       <c r="D13" t="n">
-        <v>0.974988060036127</v>
+        <v>0.8537422209585639</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9594107255975629</v>
+        <v>0.6602289113381503</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9715429323066469</v>
+        <v>0.8770362056909562</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0454049349265359</v>
+        <v>0.2389194791741838</v>
       </c>
       <c r="H13" t="n">
-        <v>1.28194416393374</v>
+        <v>1.502750592676469</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02591546337431378</v>
+        <v>0.9031401868440135</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1880430849906831</v>
+        <v>0.5810283531162609</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1069792343104311</v>
+        <v>0.7420842699801372</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5898004804921869</v>
+        <v>0.7195821472073948</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2130843375908607</v>
+        <v>0.4887939025542195</v>
       </c>
       <c r="N13" t="n">
-        <v>1.002507086511997</v>
+        <v>1.013192218085108</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2221557789874912</v>
+        <v>0.5096028709288198</v>
       </c>
       <c r="P13" t="n">
-        <v>184.1842689620395</v>
+        <v>180.8632573820752</v>
       </c>
       <c r="Q13" t="n">
-        <v>292.6642173753093</v>
+        <v>289.3432057953451</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_12</t>
+          <t>model_30_7_3</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9929523583473981</v>
+        <v>0.9690069531091191</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8073689408222169</v>
+        <v>0.7752716208325515</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9768242703195542</v>
+        <v>0.906832736227255</v>
       </c>
       <c r="E14" t="n">
-        <v>0.960212860568165</v>
+        <v>0.6459756583994456</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9722902354586704</v>
+        <v>0.902177890179143</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04712761218235428</v>
+        <v>0.2072506472691795</v>
       </c>
       <c r="H14" t="n">
-        <v>1.288124779706305</v>
+        <v>1.502759706271766</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0240129224112207</v>
+        <v>0.5753068353897535</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1843269324683342</v>
+        <v>0.6054022458866584</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1041698823468795</v>
+        <v>0.5903546597779996</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6018093602561916</v>
+        <v>0.8543451959698453</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2170889499314838</v>
+        <v>0.4552478965016526</v>
       </c>
       <c r="N14" t="n">
-        <v>1.002602206148653</v>
+        <v>1.011443586544325</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2263308759661449</v>
+        <v>0.4746287419487896</v>
       </c>
       <c r="P14" t="n">
-        <v>184.1097924076498</v>
+        <v>181.1476527236785</v>
       </c>
       <c r="Q14" t="n">
-        <v>292.5897408209196</v>
+        <v>289.6276011369483</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_11</t>
+          <t>model_30_7_16</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.992607820457402</v>
+        <v>0.9639714807293842</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8063013038398592</v>
+        <v>0.7751651782297535</v>
       </c>
       <c r="D15" t="n">
-        <v>0.978767465332239</v>
+        <v>0.8514348223580614</v>
       </c>
       <c r="E15" t="n">
-        <v>0.961036961026205</v>
+        <v>0.6602291225956458</v>
       </c>
       <c r="F15" t="n">
-        <v>0.973065805163259</v>
+        <v>0.8758557713360831</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04943153863920948</v>
+        <v>0.2409228742586851</v>
       </c>
       <c r="H15" t="n">
-        <v>1.295264073123347</v>
+        <v>1.503471488446799</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02199953203633885</v>
+        <v>0.9173883479800513</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1805090176434572</v>
+        <v>0.581027991853638</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1012542673564201</v>
+        <v>0.7492081699168447</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6151327801541331</v>
+        <v>0.7139153337687896</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2223320459115363</v>
+        <v>0.490838949410787</v>
       </c>
       <c r="N15" t="n">
-        <v>1.002729420138806</v>
+        <v>1.013302837884535</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2317971813967732</v>
+        <v>0.511734979663902</v>
       </c>
       <c r="P15" t="n">
-        <v>184.0143332490169</v>
+        <v>180.8465568410658</v>
       </c>
       <c r="Q15" t="n">
-        <v>292.4942816622867</v>
+        <v>289.3265052543356</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_10</t>
+          <t>model_30_7_17</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.992153335154735</v>
+        <v>0.963694384391003</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8050647934691405</v>
+        <v>0.7750612822183304</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9808098190795108</v>
+        <v>0.8493436500668928</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9618727911072997</v>
+        <v>0.6601905766047884</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9738622752253169</v>
+        <v>0.8747804672011931</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05247068395085609</v>
+        <v>0.2427758187493516</v>
       </c>
       <c r="H16" t="n">
-        <v>1.30353262366595</v>
+        <v>1.504166241553583</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0198834009480961</v>
+        <v>0.9303013140195127</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1766367615045882</v>
+        <v>0.5810939077432898</v>
       </c>
       <c r="K16" t="n">
-        <v>0.09826008122634215</v>
+        <v>0.7556976108814013</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6299238647798439</v>
+        <v>0.7087921817672707</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2290648029507285</v>
+        <v>0.492722862012056</v>
       </c>
       <c r="N16" t="n">
-        <v>1.002897230096713</v>
+        <v>1.013405150378706</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2388165658418523</v>
+        <v>0.5136990943248438</v>
       </c>
       <c r="P16" t="n">
-        <v>183.895001332569</v>
+        <v>180.8312336360917</v>
       </c>
       <c r="Q16" t="n">
-        <v>292.3749497458388</v>
+        <v>289.3111820493615</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_9</t>
+          <t>model_30_7_18</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9915603227355472</v>
+        <v>0.9634390206770743</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8036287315616985</v>
+        <v>0.7749622017175852</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9829395576308515</v>
+        <v>0.8474501336192491</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9627062552726048</v>
+        <v>0.6601248879952457</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9746693235701613</v>
+        <v>0.8738024593728211</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0564361607285365</v>
+        <v>0.2444834370802342</v>
       </c>
       <c r="H17" t="n">
-        <v>1.313135576253472</v>
+        <v>1.50482879331829</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01767672839475334</v>
+        <v>0.9419937573857735</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1727754662441895</v>
+        <v>0.581206239091938</v>
       </c>
       <c r="K17" t="n">
-        <v>0.09522612794228223</v>
+        <v>0.761599870399583</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6463282170791842</v>
+        <v>0.7041603352790411</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2375629616092048</v>
+        <v>0.4944526641451477</v>
       </c>
       <c r="N17" t="n">
-        <v>1.003116188528413</v>
+        <v>1.013499438519234</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2476765087080334</v>
+        <v>0.5155025377159252</v>
       </c>
       <c r="P17" t="n">
-        <v>183.7492903565128</v>
+        <v>180.8172154287299</v>
       </c>
       <c r="Q17" t="n">
-        <v>292.2292387697826</v>
+        <v>289.2971638419997</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_8</t>
+          <t>model_30_7_19</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9907932974441297</v>
+        <v>0.9632044036185644</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8019560298500146</v>
+        <v>0.7748685231107739</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9851400749406272</v>
+        <v>0.8457371169988654</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9635191605452682</v>
+        <v>0.6600404141552981</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9754734730791271</v>
+        <v>0.8729140913550837</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06156526238407186</v>
+        <v>0.2460523224308021</v>
       </c>
       <c r="H18" t="n">
-        <v>1.324320940301585</v>
+        <v>1.505455222593387</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01539672029348629</v>
+        <v>0.9525716162917394</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1690094167760167</v>
+        <v>0.5813506942788095</v>
       </c>
       <c r="K18" t="n">
-        <v>0.09220307231099663</v>
+        <v>0.7669611552852743</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6740332964313719</v>
+        <v>0.6999789928003689</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2481234821295072</v>
+        <v>0.4960366140022348</v>
       </c>
       <c r="N18" t="n">
-        <v>1.003399397866783</v>
+        <v>1.013586066356222</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2586866124501762</v>
+        <v>0.5171539195976568</v>
       </c>
       <c r="P18" t="n">
-        <v>183.5753149796863</v>
+        <v>180.8044221457151</v>
       </c>
       <c r="Q18" t="n">
-        <v>292.0552633929561</v>
+        <v>289.2843705589849</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_7</t>
+          <t>model_30_7_2</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9898083635246721</v>
+        <v>0.9692438709329151</v>
       </c>
       <c r="C19" t="n">
-        <v>0.800001851791482</v>
+        <v>0.7747863576380466</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9873878757291219</v>
+        <v>0.9140826186400199</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9642888932997049</v>
+        <v>0.6414101250522128</v>
       </c>
       <c r="F19" t="n">
-        <v>0.97625753836631</v>
+        <v>0.9052401287320165</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06815152003868903</v>
+        <v>0.2056663766905492</v>
       </c>
       <c r="H19" t="n">
-        <v>1.337388537977155</v>
+        <v>1.506004663487852</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0130677206600661</v>
+        <v>0.5305388907390512</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1654433781144837</v>
+        <v>0.6132095738505748</v>
       </c>
       <c r="K19" t="n">
-        <v>0.08925551970381754</v>
+        <v>0.5718741056133898</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7048134280127967</v>
+        <v>0.8736048970695809</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2610584609597801</v>
+        <v>0.4535045498013766</v>
       </c>
       <c r="N19" t="n">
-        <v>1.003763065775506</v>
+        <v>1.011356109194001</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2721722601083514</v>
+        <v>0.4728111773702576</v>
       </c>
       <c r="P19" t="n">
-        <v>183.3720436335578</v>
+        <v>181.1629999073567</v>
       </c>
       <c r="Q19" t="n">
-        <v>291.8519920468276</v>
+        <v>289.6429483206265</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_6</t>
+          <t>model_30_7_20</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9885508632092943</v>
+        <v>0.9629892648135002</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7977116419329757</v>
+        <v>0.7747805369196268</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9896502398879345</v>
+        <v>0.8441873778396859</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9649865710752411</v>
+        <v>0.6599443652119876</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9769991950461975</v>
+        <v>0.872107637263198</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07656043043787679</v>
+        <v>0.2474909566108893</v>
       </c>
       <c r="H20" t="n">
-        <v>1.352703181846433</v>
+        <v>1.506043586658727</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01072363157374355</v>
+        <v>0.9621412386595479</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1622111577022511</v>
+        <v>0.5815149435666759</v>
       </c>
       <c r="K20" t="n">
-        <v>0.08646739463799735</v>
+        <v>0.7718280911131119</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7388017562003973</v>
+        <v>0.696201173339825</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2766955555079929</v>
+        <v>0.497484629522249</v>
       </c>
       <c r="N20" t="n">
-        <v>1.004227373584261</v>
+        <v>1.013665502222708</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2884750581447297</v>
+        <v>0.5186635801361633</v>
       </c>
       <c r="P20" t="n">
-        <v>183.1393498192479</v>
+        <v>180.7927624731737</v>
       </c>
       <c r="Q20" t="n">
-        <v>291.6192982325177</v>
+        <v>289.2727108864435</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_5</t>
+          <t>model_30_7_21</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9869532209706459</v>
+        <v>0.9627924959127299</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7950188747137361</v>
+        <v>0.7746984473750985</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9918842708117303</v>
+        <v>0.8427866727217356</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9655762284759127</v>
+        <v>0.6598417426161066</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9776703952310192</v>
+        <v>0.8713764975852968</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08724387144418483</v>
+        <v>0.2488067511563788</v>
       </c>
       <c r="H21" t="n">
-        <v>1.370709728640542</v>
+        <v>1.506592519820975</v>
       </c>
       <c r="I21" t="n">
-        <v>0.008408899223260718</v>
+        <v>0.9707905774518497</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1594793769955918</v>
+        <v>0.5816904341833498</v>
       </c>
       <c r="K21" t="n">
-        <v>0.08394413810942625</v>
+        <v>0.7762405058175996</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7762915116815837</v>
+        <v>0.6927904974609624</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2953707355920434</v>
+        <v>0.4988053239054078</v>
       </c>
       <c r="N21" t="n">
-        <v>1.004817272256992</v>
+        <v>1.0137381553553</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3079452793079104</v>
+        <v>0.5200404992134275</v>
       </c>
       <c r="P21" t="n">
-        <v>182.8780959233881</v>
+        <v>180.7821575672247</v>
       </c>
       <c r="Q21" t="n">
-        <v>291.3580443366579</v>
+        <v>289.2621059804945</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_4</t>
+          <t>model_30_7_22</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.984931609858503</v>
+        <v>0.9626127319854326</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7918419410928677</v>
+        <v>0.7746221326661089</v>
       </c>
       <c r="D22" t="n">
-        <v>0.994032229895235</v>
+        <v>0.8415207070903044</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9660128905162626</v>
+        <v>0.6597349509972769</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9782354615905414</v>
+        <v>0.8707136999174773</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1007623942597473</v>
+        <v>0.2500088333659517</v>
       </c>
       <c r="H22" t="n">
-        <v>1.391953898391723</v>
+        <v>1.507102836631386</v>
       </c>
       <c r="I22" t="n">
-        <v>0.006183347945011413</v>
+        <v>0.9786079013877271</v>
       </c>
       <c r="J22" t="n">
-        <v>0.157456397319937</v>
+        <v>0.5818730540721098</v>
       </c>
       <c r="K22" t="n">
-        <v>0.08181987263247423</v>
+        <v>0.7802404777299186</v>
       </c>
       <c r="L22" t="n">
-        <v>0.8175948313598166</v>
+        <v>0.6897126946034039</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3174309283289001</v>
+        <v>0.5000088332879247</v>
       </c>
       <c r="N22" t="n">
-        <v>1.005563713283014</v>
+        <v>1.013804529728456</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3309446201204695</v>
+        <v>0.521295244481966</v>
       </c>
       <c r="P22" t="n">
-        <v>182.5899801315476</v>
+        <v>180.7725180565606</v>
       </c>
       <c r="Q22" t="n">
-        <v>291.0699285448175</v>
+        <v>289.2524664698304</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_3</t>
+          <t>model_30_7_23</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9823819125864864</v>
+        <v>0.9624488849806447</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7880805447140395</v>
+        <v>0.7745515192253603</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9960175734638351</v>
+        <v>0.840377491222279</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9662407960659551</v>
+        <v>0.6596281423288984</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9786494870206903</v>
+        <v>0.8701136985684532</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1178122316579981</v>
+        <v>0.2511044790414147</v>
       </c>
       <c r="H23" t="n">
-        <v>1.417106373296584</v>
+        <v>1.507575029034817</v>
       </c>
       <c r="I23" t="n">
-        <v>0.004126286453107848</v>
+        <v>0.9856672468763454</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1564005503435714</v>
+        <v>0.582055703116591</v>
       </c>
       <c r="K23" t="n">
-        <v>0.08026341839833963</v>
+        <v>0.7838614749964682</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8630516331347619</v>
+        <v>0.6869398951699232</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3432378645458541</v>
+        <v>0.5011032618546947</v>
       </c>
       <c r="N23" t="n">
-        <v>1.006505139968066</v>
+        <v>1.01386502708407</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3578502110399018</v>
+        <v>0.5224362651386029</v>
       </c>
       <c r="P23" t="n">
-        <v>182.2773263580928</v>
+        <v>180.7637723505956</v>
       </c>
       <c r="Q23" t="n">
-        <v>290.7572747713626</v>
+        <v>289.2437207638654</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_2</t>
+          <t>model_30_7_24</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9791747516060271</v>
+        <v>0.9622997027345233</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7836107304247424</v>
+        <v>0.7744864048168135</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9977387825746759</v>
+        <v>0.839345401351444</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9661886639291376</v>
+        <v>0.6595222112548527</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9788545595075542</v>
+        <v>0.8695706735757438</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1392585319019486</v>
+        <v>0.2521020614081496</v>
       </c>
       <c r="H24" t="n">
-        <v>1.446996042030717</v>
+        <v>1.508010449384593</v>
       </c>
       <c r="I24" t="n">
-        <v>0.002342900928596159</v>
+        <v>0.992040390547026</v>
       </c>
       <c r="J24" t="n">
-        <v>0.156642069512826</v>
+        <v>0.582236851423644</v>
       </c>
       <c r="K24" t="n">
-        <v>0.07949248522071106</v>
+        <v>0.7871386209853349</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9130240779011278</v>
+        <v>0.6844376196529867</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3731735948616254</v>
+        <v>0.5020976612255326</v>
       </c>
       <c r="N24" t="n">
-        <v>1.007689322483929</v>
+        <v>1.013920109759561</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3890603673707201</v>
+        <v>0.5234729981493477</v>
       </c>
       <c r="P24" t="n">
-        <v>181.9428462633214</v>
+        <v>180.7558425357509</v>
       </c>
       <c r="Q24" t="n">
-        <v>290.4227946765912</v>
+        <v>289.2357909490207</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9751492917876164</v>
+        <v>0.9693480994770476</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7782788649649178</v>
+        <v>0.774087635971764</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9990618886428241</v>
+        <v>0.9218158928186319</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9657659194664782</v>
+        <v>0.6356122353280758</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9787764069416837</v>
+        <v>0.9083750098125996</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1661768002431986</v>
+        <v>0.204969399936007</v>
       </c>
       <c r="H25" t="n">
-        <v>1.482650250911547</v>
+        <v>1.510677018487601</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0009719993952102515</v>
+        <v>0.4827860072181763</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1586005714592525</v>
+        <v>0.6231243030031712</v>
       </c>
       <c r="K25" t="n">
-        <v>0.07978628575372129</v>
+        <v>0.5529551551106737</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9680614424426379</v>
+        <v>0.8945038772507894</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4076478875735756</v>
+        <v>0.4527354635281038</v>
       </c>
       <c r="N25" t="n">
-        <v>1.009175646109188</v>
+        <v>1.011317624808475</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4250023020950421</v>
+        <v>0.4720093495021036</v>
       </c>
       <c r="P25" t="n">
-        <v>181.5894059913908</v>
+        <v>181.1697891591805</v>
       </c>
       <c r="Q25" t="n">
-        <v>290.0693544046606</v>
+        <v>289.6497375724503</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9701046026553191</v>
+        <v>0.9692649202899615</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7718942149745044</v>
+        <v>0.7731094805357738</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9998081889276523</v>
+        <v>0.9299969092960927</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9648530090013079</v>
+        <v>0.6282740624266774</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9783167376533936</v>
+        <v>0.9115207511751863</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1999106596995289</v>
+        <v>0.2055256195430567</v>
       </c>
       <c r="H26" t="n">
-        <v>1.525344434796051</v>
+        <v>1.517217948392059</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001987399948741917</v>
+        <v>0.4322683198961594</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1628299276800327</v>
+        <v>0.6356730061096478</v>
       </c>
       <c r="K26" t="n">
-        <v>0.08151432987362862</v>
+        <v>0.5339706630029037</v>
       </c>
       <c r="L26" t="n">
-        <v>1.028495876150881</v>
+        <v>0.9171047409156949</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4471136988502241</v>
+        <v>0.4533493349979205</v>
       </c>
       <c r="N26" t="n">
-        <v>1.011038300558036</v>
+        <v>1.011348337123707</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4661482546632293</v>
+        <v>0.4726493547512794</v>
       </c>
       <c r="P26" t="n">
-        <v>181.2197694274746</v>
+        <v>181.1643691670143</v>
       </c>
       <c r="Q26" t="n">
-        <v>289.6997178407444</v>
+        <v>289.6443175802841</v>
       </c>
     </row>
   </sheetData>
